--- a/tests/_project_settings/teachers_students_data.xlsx
+++ b/tests/_project_settings/teachers_students_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="teachers" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>УG-2801</t>
   </si>
   <si>
-    <t>Арзяев Иван Иванович</t>
-  </si>
-  <si>
     <t>Байков Иван Дмитриевич</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Рассказова Вера Викторовна</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -507,7 +507,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -705,7 +705,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
